--- a/HW1/inputs_school.xlsx
+++ b/HW1/inputs_school.xlsx
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1341,13 +1341,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="16">
-        <v>1e-8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="15">
         <v>500</v>
       </c>
       <c r="G3" s="15">
-        <v>1e-8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="15">
         <v>400</v>
@@ -1374,7 +1374,7 @@
         <v>400</v>
       </c>
       <c r="P3" s="15">
-        <v>1e-8</v>
+        <v>0</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
